--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenyu_li/Desktop/Zhenyu/vector_ai_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1CC0C7-9131-6943-A31C-6C176BCA4BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA80B068-13D5-3E4D-8709-542654F9AAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9400" yWindow="960" windowWidth="19400" windowHeight="17040" xr2:uid="{4B07D065-0B13-A545-88E6-0D17257F102A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="testing samples" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$199</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>str_1</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Marks and Spencers Ltd</t>
   </si>
   <si>
-    <t>LONDON</t>
-  </si>
-  <si>
     <t>ASIA</t>
   </si>
   <si>
@@ -64,18 +61,12 @@
     <t>RYLAND GROUP INC.</t>
   </si>
   <si>
-    <t>VERO BEACH, FLORIDA</t>
-  </si>
-  <si>
     <t>5 Time Sqaure, New York, NY 10036</t>
   </si>
   <si>
     <t>INTEL CORPORATION</t>
   </si>
   <si>
-    <t>Los Angeles, CA</t>
-  </si>
-  <si>
     <t>United States of America</t>
   </si>
   <si>
@@ -146,6 +137,18 @@
   </si>
   <si>
     <t>Pepsi Co.</t>
+  </si>
+  <si>
+    <t>213 35th Street, Sunrise, FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McLovin, Hawaii </t>
+  </si>
+  <si>
+    <t>PWC LLP</t>
+  </si>
+  <si>
+    <t>Little Alley, Shanghai</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECA5D60-D790-B44B-AA21-07B6B4CC17CA}">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,7 +558,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -570,7 +573,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -580,52 +583,52 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -635,8 +638,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
@@ -647,14 +664,14 @@
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
@@ -665,22 +682,34 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -708,21 +737,18 @@
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -764,23 +790,14 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-    </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
@@ -791,14 +808,14 @@
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -809,14 +826,14 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
@@ -827,14 +844,14 @@
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
@@ -846,13 +863,13 @@
       <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
@@ -879,12 +896,15 @@
       <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -900,15 +920,12 @@
       <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1"/>
       <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -936,12 +953,15 @@
       <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
       <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -966,7 +986,6 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
@@ -974,24 +993,22 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B179" s="1"/>
@@ -1012,12 +1029,15 @@
       <c r="B184" s="1"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
       <c r="B187" s="1"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,43 +1069,31 @@
       <c r="B194" s="1"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1"/>
+      <c r="A195" s="4"/>
       <c r="B195" s="1"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="1"/>
+      <c r="A196" s="4"/>
       <c r="B196" s="1"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1"/>
+      <c r="A197" s="3"/>
       <c r="B197" s="1"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="4"/>
+      <c r="A198" s="3"/>
       <c r="B198" s="1"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
+      <c r="A199" s="3"/>
       <c r="B199" s="1"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
+      <c r="A200" s="1"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="3"/>
-      <c r="B201" s="1"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H202" xr:uid="{F134BF7F-A0BB-1649-9E70-587ADF2216AD}"/>
+  <autoFilter ref="A1:H199" xr:uid="{F134BF7F-A0BB-1649-9E70-587ADF2216AD}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1106,74 +1114,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
